--- a/resultats.xlsx
+++ b/resultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/454b6b78242c252b/Documents/France/ST7 Jupyter/Projet SNCF/fret_sncf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_0E8D70A6D3505D654B193E11595ED87656CC70EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11CEC8C3-2D01-4969-9240-C6418D6F7D01}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7F49F3BFD360D35A3BB83311595ED87656CC00EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D7BE6E-AB0C-4E6B-A69C-C4B2BC702FC2}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="413">
   <si>
     <t>Train</t>
   </si>
@@ -55,129 +55,138 @@
     <t>('ARR', 431018, 801)</t>
   </si>
   <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>('ARR', 431246, 664)</t>
+  </si>
+  <si>
+    <t>14:51</t>
+  </si>
+  <si>
+    <t>('ARR', 44951, 1130)</t>
+  </si>
+  <si>
+    <t>19:50</t>
+  </si>
+  <si>
+    <t>('ARR', 450237, 707)</t>
+  </si>
+  <si>
     <t>14:21</t>
   </si>
   <si>
-    <t>('ARR', 431246, 664)</t>
+    <t>('ARR', 489016, 1415)</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>09/08/2022</t>
+  </si>
+  <si>
+    <t>('ARR', 54234, 1321)</t>
+  </si>
+  <si>
+    <t>23:01</t>
+  </si>
+  <si>
+    <t>('ARR', 55390, 1429)</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>('ARR', 56135, 1288)</t>
+  </si>
+  <si>
+    <t>22:28</t>
+  </si>
+  <si>
+    <t>('ARR', 412023, 1567)</t>
+  </si>
+  <si>
+    <t>03:07</t>
+  </si>
+  <si>
+    <t>('ARR', 41264, 2793)</t>
+  </si>
+  <si>
+    <t>23:33</t>
+  </si>
+  <si>
+    <t>('ARR', 431802, 1620)</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>('ARR', 44222, 2533)</t>
+  </si>
+  <si>
+    <t>19:13</t>
+  </si>
+  <si>
+    <t>('ARR', 44250, 2058)</t>
+  </si>
+  <si>
+    <t>11:18</t>
+  </si>
+  <si>
+    <t>('ARR', 44865, 2416)</t>
+  </si>
+  <si>
+    <t>17:16</t>
+  </si>
+  <si>
+    <t>('ARR', 450237, 2147)</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>('ARR', 471003, 2203)</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>('ARR', 47262, 1982)</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>('ARR', 489026, 2011)</t>
+  </si>
+  <si>
+    <t>10:31</t>
+  </si>
+  <si>
+    <t>('ARR', 54234, 2761)</t>
+  </si>
+  <si>
+    <t>('ARR', 55390, 2869)</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>10/08/2022</t>
+  </si>
+  <si>
+    <t>('ARR', 55398, 1680)</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>('ARR', 56135, 2728)</t>
   </si>
   <si>
     <t>12:32</t>
   </si>
   <si>
-    <t>('ARR', 44951, 1130)</t>
-  </si>
-  <si>
-    <t>19:50</t>
-  </si>
-  <si>
-    <t>('ARR', 450237, 707)</t>
-  </si>
-  <si>
-    <t>12:47</t>
-  </si>
-  <si>
-    <t>('ARR', 489016, 1415)</t>
-  </si>
-  <si>
-    <t>00:35</t>
-  </si>
-  <si>
-    <t>09/08/2022</t>
-  </si>
-  <si>
-    <t>('ARR', 54234, 1321)</t>
-  </si>
-  <si>
-    <t>23:01</t>
-  </si>
-  <si>
-    <t>('ARR', 55390, 1429)</t>
-  </si>
-  <si>
-    <t>00:49</t>
-  </si>
-  <si>
-    <t>('ARR', 56135, 1288)</t>
-  </si>
-  <si>
-    <t>22:28</t>
-  </si>
-  <si>
-    <t>('ARR', 412023, 1567)</t>
-  </si>
-  <si>
-    <t>03:07</t>
-  </si>
-  <si>
-    <t>('ARR', 41264, 2793)</t>
-  </si>
-  <si>
-    <t>23:33</t>
-  </si>
-  <si>
-    <t>('ARR', 431802, 1620)</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>('ARR', 44222, 2533)</t>
-  </si>
-  <si>
-    <t>19:13</t>
-  </si>
-  <si>
-    <t>('ARR', 44250, 2058)</t>
-  </si>
-  <si>
-    <t>11:18</t>
-  </si>
-  <si>
-    <t>('ARR', 44865, 2416)</t>
-  </si>
-  <si>
-    <t>17:16</t>
-  </si>
-  <si>
-    <t>('ARR', 450237, 2147)</t>
-  </si>
-  <si>
-    <t>('ARR', 471003, 2203)</t>
-  </si>
-  <si>
-    <t>13:43</t>
-  </si>
-  <si>
-    <t>('ARR', 47262, 1982)</t>
-  </si>
-  <si>
-    <t>10:02</t>
-  </si>
-  <si>
-    <t>('ARR', 489026, 2011)</t>
-  </si>
-  <si>
-    <t>10:31</t>
-  </si>
-  <si>
-    <t>('ARR', 54234, 2761)</t>
-  </si>
-  <si>
-    <t>('ARR', 55390, 2869)</t>
-  </si>
-  <si>
-    <t>10/08/2022</t>
-  </si>
-  <si>
-    <t>('ARR', 55398, 1680)</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>('ARR', 56135, 2728)</t>
-  </si>
-  <si>
     <t>('ARR', 56730, 1592)</t>
   </si>
   <si>
@@ -244,21 +253,30 @@
     <t>('ARR', 471003, 3643)</t>
   </si>
   <si>
+    <t>13:45</t>
+  </si>
+  <si>
     <t>('ARR', 47214, 3643)</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>('ARR', 47262, 3422)</t>
   </si>
   <si>
+    <t>00:24</t>
+  </si>
+  <si>
+    <t>11/08/2022</t>
+  </si>
+  <si>
     <t>('ARR', 54234, 4201)</t>
   </si>
   <si>
     <t>('ARR', 55390, 4309)</t>
   </si>
   <si>
-    <t>11/08/2022</t>
-  </si>
-  <si>
     <t>('ARR', 55396, 3345)</t>
   </si>
   <si>
@@ -268,6 +286,9 @@
     <t>('ARR', 56135, 4168)</t>
   </si>
   <si>
+    <t>22:30</t>
+  </si>
+  <si>
     <t>('ARR', 56730, 3032)</t>
   </si>
   <si>
@@ -289,7 +310,7 @@
     <t>('ARR', 41254, 5717)</t>
   </si>
   <si>
-    <t>00:17</t>
+    <t>19:11</t>
   </si>
   <si>
     <t>12/08/2022</t>
@@ -298,6 +319,9 @@
     <t>('ARR', 431246, 4984)</t>
   </si>
   <si>
+    <t>12:24</t>
+  </si>
+  <si>
     <t>('ARR', 431640, 4989)</t>
   </si>
   <si>
@@ -307,6 +331,9 @@
     <t>('ARR', 431802, 4500)</t>
   </si>
   <si>
+    <t>04:02</t>
+  </si>
+  <si>
     <t>('ARR', 44222, 5272)</t>
   </si>
   <si>
@@ -322,6 +349,9 @@
     <t>('ARR', 450237, 5027)</t>
   </si>
   <si>
+    <t>12:54</t>
+  </si>
+  <si>
     <t>('ARR', 471003, 5083)</t>
   </si>
   <si>
@@ -355,81 +385,105 @@
     <t>('ARR', 55394, 5013)</t>
   </si>
   <si>
+    <t>12:39</t>
+  </si>
+  <si>
+    <t>('ARR', 55396, 4545)</t>
+  </si>
+  <si>
+    <t>04:45</t>
+  </si>
+  <si>
+    <t>('ARR', 56135, 5608)</t>
+  </si>
+  <si>
+    <t>('ARR', 56730, 4472)</t>
+  </si>
+  <si>
+    <t>('ARR', 58706, 5595)</t>
+  </si>
+  <si>
+    <t>22:43</t>
+  </si>
+  <si>
+    <t>('ARR', 412023, 5887)</t>
+  </si>
+  <si>
+    <t>('ARR', 412202, 7008)</t>
+  </si>
+  <si>
+    <t>('ARR', 41264, 7113)</t>
+  </si>
+  <si>
+    <t>('ARR', 431246, 6424)</t>
+  </si>
+  <si>
+    <t>('ARR', 431802, 6063)</t>
+  </si>
+  <si>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>('ARR', 44222, 6712)</t>
+  </si>
+  <si>
+    <t>('ARR', 44228, 5833)</t>
+  </si>
+  <si>
+    <t>('ARR', 44250, 6378)</t>
+  </si>
+  <si>
+    <t>09:59</t>
+  </si>
+  <si>
+    <t>13/08/2022</t>
+  </si>
+  <si>
+    <t>('ARR', 44865, 6739)</t>
+  </si>
+  <si>
+    <t>09:44</t>
+  </si>
+  <si>
+    <t>('ARR', 44951, 6890)</t>
+  </si>
+  <si>
+    <t>21:33</t>
+  </si>
+  <si>
+    <t>('ARR', 450237, 6467)</t>
+  </si>
+  <si>
+    <t>12:48</t>
+  </si>
+  <si>
+    <t>('ARR', 471003, 6523)</t>
+  </si>
+  <si>
+    <t>('ARR', 47214, 6823)</t>
+  </si>
+  <si>
+    <t>09:29</t>
+  </si>
+  <si>
+    <t>('ARR', 47262, 6302)</t>
+  </si>
+  <si>
+    <t>('ARR', 47822, 6933)</t>
+  </si>
+  <si>
+    <t>('ARR', 48216, 6223)</t>
+  </si>
+  <si>
+    <t>08:43</t>
+  </si>
+  <si>
+    <t>('ARR', 489026, 6453)</t>
+  </si>
+  <si>
     <t>12:33</t>
   </si>
   <si>
-    <t>('ARR', 55396, 4545)</t>
-  </si>
-  <si>
-    <t>04:45</t>
-  </si>
-  <si>
-    <t>('ARR', 56135, 5608)</t>
-  </si>
-  <si>
-    <t>('ARR', 56730, 4472)</t>
-  </si>
-  <si>
-    <t>('ARR', 58706, 5595)</t>
-  </si>
-  <si>
-    <t>('ARR', 412023, 5887)</t>
-  </si>
-  <si>
-    <t>('ARR', 412202, 7008)</t>
-  </si>
-  <si>
-    <t>('ARR', 41264, 7113)</t>
-  </si>
-  <si>
-    <t>('ARR', 431246, 6424)</t>
-  </si>
-  <si>
-    <t>('ARR', 431802, 6063)</t>
-  </si>
-  <si>
-    <t>06:03</t>
-  </si>
-  <si>
-    <t>('ARR', 44222, 6712)</t>
-  </si>
-  <si>
-    <t>('ARR', 44228, 5833)</t>
-  </si>
-  <si>
-    <t>('ARR', 44250, 6378)</t>
-  </si>
-  <si>
-    <t>('ARR', 44865, 6739)</t>
-  </si>
-  <si>
-    <t>('ARR', 44951, 6890)</t>
-  </si>
-  <si>
-    <t>('ARR', 450237, 6467)</t>
-  </si>
-  <si>
-    <t>('ARR', 471003, 6523)</t>
-  </si>
-  <si>
-    <t>('ARR', 47214, 6823)</t>
-  </si>
-  <si>
-    <t>('ARR', 47262, 6302)</t>
-  </si>
-  <si>
-    <t>('ARR', 47822, 6933)</t>
-  </si>
-  <si>
-    <t>('ARR', 48216, 6223)</t>
-  </si>
-  <si>
-    <t>08:43</t>
-  </si>
-  <si>
-    <t>('ARR', 489026, 6453)</t>
-  </si>
-  <si>
     <t>('ARR', 489042, 7056)</t>
   </si>
   <si>
@@ -442,9 +496,15 @@
     <t>('ARR', 55396, 6225)</t>
   </si>
   <si>
+    <t>08:58</t>
+  </si>
+  <si>
     <t>('ARR', 56135, 7048)</t>
   </si>
   <si>
+    <t>14/08/2022</t>
+  </si>
+  <si>
     <t>('ARR', 56730, 5912)</t>
   </si>
   <si>
@@ -454,27 +514,33 @@
     <t>('ARR', 71270, 6325)</t>
   </si>
   <si>
+    <t>02:36</t>
+  </si>
+  <si>
     <t>('ARR', 412023, 7327)</t>
   </si>
   <si>
-    <t>13/08/2022</t>
-  </si>
-  <si>
     <t>('ARR', 41230, 8521)</t>
   </si>
   <si>
+    <t>23:16</t>
+  </si>
+  <si>
     <t>('ARR', 431802, 7503)</t>
   </si>
   <si>
     <t>('ARR', 44222, 8165)</t>
   </si>
   <si>
-    <t>17:05</t>
+    <t>21:31</t>
   </si>
   <si>
     <t>('ARR', 44228, 7273)</t>
   </si>
   <si>
+    <t>00:09</t>
+  </si>
+  <si>
     <t>('ARR', 44250, 7831)</t>
   </si>
   <si>
@@ -484,7 +550,7 @@
     <t>('ARR', 44864, 8172)</t>
   </si>
   <si>
-    <t>17:12</t>
+    <t>21:16</t>
   </si>
   <si>
     <t>('ARR', 450235, 7911)</t>
@@ -496,219 +562,324 @@
     <t>('ARR', 47240, 7306)</t>
   </si>
   <si>
+    <t>02:51</t>
+  </si>
+  <si>
+    <t>('ARR', 47262, 7757)</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>('ARR', 47822, 8373)</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>('ARR', 489026, 7893)</t>
+  </si>
+  <si>
+    <t>('ARR', 54234, 8521)</t>
+  </si>
+  <si>
+    <t>('ARR', 55390, 8629)</t>
+  </si>
+  <si>
+    <t>('ARR', 55396, 7665)</t>
+  </si>
+  <si>
+    <t>('ARR', 56135, 8488)</t>
+  </si>
+  <si>
+    <t>('ARR', 56730, 7352)</t>
+  </si>
+  <si>
+    <t>('ARR', 58706, 8475)</t>
+  </si>
+  <si>
+    <t>('ARR', 56730, 8795)</t>
+  </si>
+  <si>
+    <t>03:35</t>
+  </si>
+  <si>
+    <t>('DEP', 400006, 2386)</t>
+  </si>
+  <si>
+    <t>04:17</t>
+  </si>
+  <si>
+    <t>07:02</t>
+  </si>
+  <si>
+    <t>('DEP', 400016, 2806)</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>('DEP', 400110, 2697)</t>
+  </si>
+  <si>
+    <t>('DEP', 431035, 2342)</t>
+  </si>
+  <si>
+    <t>01:05</t>
+  </si>
+  <si>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>('DEP', 431091, 1819)</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>04:20</t>
+  </si>
+  <si>
+    <t>('DEP', 44203, 2515)</t>
+  </si>
+  <si>
+    <t>06:47</t>
+  </si>
+  <si>
+    <t>('DEP', 44241, 2242)</t>
+  </si>
+  <si>
+    <t>17:21</t>
+  </si>
+  <si>
+    <t>('DEP', 44249, 1627)</t>
+  </si>
+  <si>
+    <t>15:21</t>
+  </si>
+  <si>
+    <t>18:06</t>
+  </si>
+  <si>
+    <t>('DEP', 44806, 1933)</t>
+  </si>
+  <si>
+    <t>17:36</t>
+  </si>
+  <si>
+    <t>('DEP', 47245, 2300)</t>
+  </si>
+  <si>
+    <t>01:28</t>
+  </si>
+  <si>
+    <t>('DEP', 47289, 2100)</t>
+  </si>
+  <si>
+    <t>01:20</t>
+  </si>
+  <si>
+    <t>04:05</t>
+  </si>
+  <si>
+    <t>('DEP', 47821, 2785)</t>
+  </si>
+  <si>
+    <t>19:05</t>
+  </si>
+  <si>
+    <t>21:50</t>
+  </si>
+  <si>
+    <t>('DEP', 489447, 1811)</t>
+  </si>
+  <si>
+    <t>05:36</t>
+  </si>
+  <si>
+    <t>('DEP', 52672, 2412)</t>
+  </si>
+  <si>
+    <t>04:32</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>('DEP', 54003, 1679)</t>
+  </si>
+  <si>
+    <t>22:58</t>
+  </si>
+  <si>
+    <t>01:43</t>
+  </si>
+  <si>
+    <t>('DEP', 54051, 1774)</t>
+  </si>
+  <si>
+    <t>15:06</t>
+  </si>
+  <si>
+    <t>17:51</t>
+  </si>
+  <si>
+    <t>('DEP', 54086, 1670)</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>18:21</t>
+  </si>
+  <si>
+    <t>('DEP', 54231, 2289)</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>08:15</t>
+  </si>
+  <si>
+    <t>('DEP', 450226, 3320)</t>
+  </si>
+  <si>
+    <t>23:46</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>('DEP', 400014, 4067)</t>
+  </si>
+  <si>
+    <t>16:27</t>
+  </si>
+  <si>
+    <t>19:12</t>
+  </si>
+  <si>
+    <t>('DEP', 412124, 3073)</t>
+  </si>
+  <si>
+    <t>06:32</t>
+  </si>
+  <si>
+    <t>('DEP', 41258, 3043)</t>
+  </si>
+  <si>
+    <t>03:22</t>
+  </si>
+  <si>
+    <t>06:07</t>
+  </si>
+  <si>
+    <t>('DEP', 431035, 3783)</t>
+  </si>
+  <si>
+    <t>('DEP', 431091, 3259)</t>
+  </si>
+  <si>
+    <t>01:04</t>
+  </si>
+  <si>
+    <t>03:49</t>
+  </si>
+  <si>
+    <t>('DEP', 44203, 3955)</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>('DEP', 44241, 3682)</t>
+  </si>
+  <si>
+    <t>23:31</t>
+  </si>
+  <si>
+    <t>02:16</t>
+  </si>
+  <si>
+    <t>('DEP', 44249, 3067)</t>
+  </si>
+  <si>
+    <t>13:58</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>('DEP', 47205, 3728)</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>('DEP', 48215, 3847)</t>
+  </si>
+  <si>
+    <t>15:32</t>
+  </si>
+  <si>
+    <t>('DEP', 489044, 3010)</t>
+  </si>
+  <si>
+    <t>13:02</t>
+  </si>
+  <si>
+    <t>15:47</t>
+  </si>
+  <si>
+    <t>('DEP', 52672, 3852)</t>
+  </si>
+  <si>
+    <t>('DEP', 54003, 3119)</t>
+  </si>
+  <si>
+    <t>00:39</t>
+  </si>
+  <si>
+    <t>03:24</t>
+  </si>
+  <si>
+    <t>('DEP', 54053, 3818)</t>
+  </si>
+  <si>
+    <t>02:01</t>
+  </si>
+  <si>
+    <t>('DEP', 54231, 3729)</t>
+  </si>
+  <si>
+    <t>('DEP', 71210, 3180)</t>
+  </si>
+  <si>
+    <t>00:01</t>
+  </si>
+  <si>
     <t>02:46</t>
   </si>
   <si>
-    <t>('ARR', 47262, 7757)</t>
-  </si>
-  <si>
-    <t>10:17</t>
-  </si>
-  <si>
-    <t>('ARR', 47822, 8373)</t>
-  </si>
-  <si>
-    <t>('ARR', 489026, 7893)</t>
-  </si>
-  <si>
-    <t>('ARR', 54234, 8521)</t>
-  </si>
-  <si>
-    <t>('ARR', 55390, 8629)</t>
-  </si>
-  <si>
-    <t>14/08/2022</t>
-  </si>
-  <si>
-    <t>('ARR', 55396, 7665)</t>
-  </si>
-  <si>
-    <t>('ARR', 56135, 8488)</t>
-  </si>
-  <si>
-    <t>('ARR', 56730, 7352)</t>
-  </si>
-  <si>
-    <t>('ARR', 58706, 8475)</t>
-  </si>
-  <si>
-    <t>('ARR', 56730, 8795)</t>
-  </si>
-  <si>
-    <t>03:35</t>
-  </si>
-  <si>
-    <t>('DEP', 400006, 2386)</t>
-  </si>
-  <si>
-    <t>21:14</t>
-  </si>
-  <si>
-    <t>16/08/2022</t>
-  </si>
-  <si>
-    <t>23:59</t>
-  </si>
-  <si>
-    <t>('DEP', 400016, 2806)</t>
-  </si>
-  <si>
-    <t>('DEP', 400110, 2697)</t>
-  </si>
-  <si>
-    <t>('DEP', 431035, 2342)</t>
-  </si>
-  <si>
-    <t>('DEP', 431091, 1819)</t>
-  </si>
-  <si>
-    <t>('DEP', 44203, 2515)</t>
-  </si>
-  <si>
-    <t>('DEP', 44241, 2242)</t>
-  </si>
-  <si>
-    <t>13:02</t>
-  </si>
-  <si>
-    <t>('DEP', 44249, 1627)</t>
-  </si>
-  <si>
-    <t>15:47</t>
-  </si>
-  <si>
-    <t>('DEP', 44806, 1933)</t>
-  </si>
-  <si>
-    <t>14:36</t>
-  </si>
-  <si>
-    <t>17:21</t>
-  </si>
-  <si>
-    <t>('DEP', 47245, 2300)</t>
-  </si>
-  <si>
-    <t>22:43</t>
-  </si>
-  <si>
-    <t>01:28</t>
-  </si>
-  <si>
-    <t>('DEP', 47289, 2100)</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>('DEP', 47821, 2785)</t>
-  </si>
-  <si>
-    <t>10:46</t>
-  </si>
-  <si>
-    <t>('DEP', 489447, 1811)</t>
-  </si>
-  <si>
-    <t>('DEP', 52672, 2412)</t>
-  </si>
-  <si>
-    <t>03:22</t>
-  </si>
-  <si>
-    <t>('DEP', 54003, 1679)</t>
-  </si>
-  <si>
-    <t>('DEP', 54051, 1774)</t>
-  </si>
-  <si>
-    <t>('DEP', 54086, 1670)</t>
-  </si>
-  <si>
-    <t>('DEP', 54231, 2289)</t>
-  </si>
-  <si>
-    <t>('DEP', 450226, 3320)</t>
-  </si>
-  <si>
-    <t>('DEP', 400014, 4067)</t>
-  </si>
-  <si>
-    <t>('DEP', 412124, 3073)</t>
-  </si>
-  <si>
-    <t>06:32</t>
-  </si>
-  <si>
-    <t>('DEP', 41258, 3043)</t>
-  </si>
-  <si>
-    <t>06:07</t>
-  </si>
-  <si>
-    <t>('DEP', 431035, 3783)</t>
-  </si>
-  <si>
-    <t>('DEP', 431091, 3259)</t>
-  </si>
-  <si>
-    <t>('DEP', 44203, 3955)</t>
-  </si>
-  <si>
-    <t>('DEP', 44241, 3682)</t>
-  </si>
-  <si>
-    <t>23:16</t>
-  </si>
-  <si>
-    <t>02:01</t>
-  </si>
-  <si>
-    <t>('DEP', 44249, 3067)</t>
-  </si>
-  <si>
-    <t>13:58</t>
-  </si>
-  <si>
-    <t>16:43</t>
-  </si>
-  <si>
-    <t>('DEP', 47205, 3728)</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>11:45</t>
-  </si>
-  <si>
-    <t>('DEP', 48215, 3847)</t>
-  </si>
-  <si>
-    <t>('DEP', 489044, 3010)</t>
-  </si>
-  <si>
-    <t>('DEP', 52672, 3852)</t>
-  </si>
-  <si>
-    <t>('DEP', 54003, 3119)</t>
-  </si>
-  <si>
-    <t>('DEP', 54053, 3818)</t>
-  </si>
-  <si>
-    <t>('DEP', 54231, 3729)</t>
-  </si>
-  <si>
-    <t>('DEP', 71210, 3180)</t>
-  </si>
-  <si>
     <t>('DEP', 400006, 5266)</t>
   </si>
   <si>
     <t>('DEP', 400010, 5746)</t>
   </si>
   <si>
+    <t>23:11</t>
+  </si>
+  <si>
     <t>('DEP', 400016, 5686)</t>
   </si>
   <si>
@@ -718,16 +889,25 @@
     <t>('DEP', 44203, 5395)</t>
   </si>
   <si>
+    <t>01:15</t>
+  </si>
+  <si>
     <t>('DEP', 44241, 5122)</t>
   </si>
   <si>
+    <t>22:45</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
     <t>('DEP', 44806, 4638)</t>
   </si>
   <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>01:15</t>
+    <t>01:58</t>
+  </si>
+  <si>
+    <t>04:43</t>
   </si>
   <si>
     <t>('DEP', 450226, 4760)</t>
@@ -736,78 +916,123 @@
     <t>('DEP', 47245, 5203)</t>
   </si>
   <si>
+    <t>11:23</t>
+  </si>
+  <si>
+    <t>14:08</t>
+  </si>
+  <si>
     <t>('DEP', 47247, 4980)</t>
   </si>
   <si>
+    <t>07:40</t>
+  </si>
+  <si>
     <t>('DEP', 47820, 5665)</t>
   </si>
   <si>
-    <t>01:04</t>
-  </si>
-  <si>
-    <t>03:49</t>
+    <t>01:19</t>
+  </si>
+  <si>
+    <t>04:04</t>
   </si>
   <si>
     <t>('DEP', 489118, 5230)</t>
   </si>
   <si>
+    <t>('DEP', 52672, 5292)</t>
+  </si>
+  <si>
+    <t>('DEP', 54003, 4559)</t>
+  </si>
+  <si>
+    <t>('DEP', 54051, 4654)</t>
+  </si>
+  <si>
+    <t>23:48</t>
+  </si>
+  <si>
+    <t>02:33</t>
+  </si>
+  <si>
+    <t>('DEP', 54086, 4550)</t>
+  </si>
+  <si>
+    <t>('DEP', 54231, 5169)</t>
+  </si>
+  <si>
+    <t>('DEP', 71256, 4466)</t>
+  </si>
+  <si>
+    <t>01:46</t>
+  </si>
+  <si>
+    <t>('DEP', 400010, 7186)</t>
+  </si>
+  <si>
+    <t>15:33</t>
+  </si>
+  <si>
+    <t>('DEP', 400016, 7126)</t>
+  </si>
+  <si>
+    <t>19:26</t>
+  </si>
+  <si>
+    <t>22:11</t>
+  </si>
+  <si>
+    <t>('DEP', 412024, 6026)</t>
+  </si>
+  <si>
+    <t>('DEP', 41258, 5923)</t>
+  </si>
+  <si>
+    <t>('DEP', 431035, 6663)</t>
+  </si>
+  <si>
+    <t>('DEP', 44241, 6562)</t>
+  </si>
+  <si>
+    <t>('DEP', 44249, 5947)</t>
+  </si>
+  <si>
+    <t>23:47</t>
+  </si>
+  <si>
+    <t>02:32</t>
+  </si>
+  <si>
+    <t>('DEP', 44952, 7017)</t>
+  </si>
+  <si>
+    <t>('DEP', 47205, 6919)</t>
+  </si>
+  <si>
     <t>07:45</t>
   </si>
   <si>
-    <t>('DEP', 52672, 5292)</t>
-  </si>
-  <si>
-    <t>('DEP', 54003, 4559)</t>
-  </si>
-  <si>
-    <t>('DEP', 54051, 4654)</t>
-  </si>
-  <si>
-    <t>('DEP', 54086, 4550)</t>
-  </si>
-  <si>
-    <t>('DEP', 54231, 5169)</t>
-  </si>
-  <si>
-    <t>('DEP', 71256, 4466)</t>
-  </si>
-  <si>
-    <t>('DEP', 400010, 7186)</t>
-  </si>
-  <si>
-    <t>('DEP', 400016, 7126)</t>
-  </si>
-  <si>
-    <t>('DEP', 412024, 6026)</t>
-  </si>
-  <si>
-    <t>('DEP', 41258, 5923)</t>
-  </si>
-  <si>
-    <t>('DEP', 431035, 6663)</t>
-  </si>
-  <si>
-    <t>('DEP', 44241, 6562)</t>
-  </si>
-  <si>
-    <t>('DEP', 44249, 5947)</t>
-  </si>
-  <si>
-    <t>('DEP', 44952, 7017)</t>
-  </si>
-  <si>
-    <t>('DEP', 47205, 6919)</t>
-  </si>
-  <si>
     <t>('DEP', 48219, 5914)</t>
   </si>
   <si>
+    <t>13:24</t>
+  </si>
+  <si>
+    <t>16:09</t>
+  </si>
+  <si>
     <t>('DEP', 489447, 6131)</t>
   </si>
   <si>
     <t>('DEP', 52672, 6732)</t>
   </si>
   <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
     <t>('DEP', 54003, 5999)</t>
   </si>
   <si>
@@ -823,15 +1048,39 @@
     <t>('DEP', 54086, 5990)</t>
   </si>
   <si>
+    <t>13:09</t>
+  </si>
+  <si>
+    <t>15:54</t>
+  </si>
+  <si>
     <t>('DEP', 54231, 6609)</t>
   </si>
   <si>
+    <t>06:18</t>
+  </si>
+  <si>
+    <t>09:03</t>
+  </si>
+  <si>
     <t>('DEP', 71217, 7170)</t>
   </si>
   <si>
+    <t>19:41</t>
+  </si>
+  <si>
+    <t>22:26</t>
+  </si>
+  <si>
     <t>('DEP', 41258, 7363)</t>
   </si>
   <si>
+    <t>23:23</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
     <t>('DEP', 431091, 7579)</t>
   </si>
   <si>
@@ -844,7 +1093,7 @@
     <t>22:51</t>
   </si>
   <si>
-    <t>01:36</t>
+    <t>03:55</t>
   </si>
   <si>
     <t>('DEP', 450224, 7779)</t>
@@ -853,7 +1102,10 @@
     <t>('DEP', 47237, 7860)</t>
   </si>
   <si>
-    <t>23:48</t>
+    <t>00:03</t>
+  </si>
+  <si>
+    <t>02:48</t>
   </si>
   <si>
     <t>('DEP', 47281, 8309)</t>
@@ -862,25 +1114,34 @@
     <t>('DEP', 489044, 7330)</t>
   </si>
   <si>
+    <t>00:33</t>
+  </si>
+  <si>
     <t>('DEP', 489119, 8103)</t>
   </si>
   <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
     <t>('DEP', 489447, 7571)</t>
   </si>
   <si>
     <t>('DEP', 54051, 7536)</t>
   </si>
   <si>
-    <t>08:58</t>
+    <t>11:43</t>
   </si>
   <si>
     <t>('DEP', 54086, 7430)</t>
   </si>
   <si>
-    <t>00:32</t>
-  </si>
-  <si>
-    <t>03:17</t>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>03:15</t>
   </si>
   <si>
     <t>('DEP', 431037, 9700)</t>
@@ -907,54 +1168,84 @@
     <t>('DEP', 54055, 8730)</t>
   </si>
   <si>
+    <t>03:06</t>
+  </si>
+  <si>
+    <t>05:51</t>
+  </si>
+  <si>
     <t>('DEP', 54086, 8870)</t>
   </si>
   <si>
     <t>('DEP', 400014, 11267)</t>
   </si>
   <si>
+    <t>07:05</t>
+  </si>
+  <si>
     <t>('DEP', 431035, 10982)</t>
   </si>
   <si>
-    <t>10:40</t>
+    <t>00:54</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>03:39</t>
   </si>
   <si>
     <t>('DEP', 431121, 10421)</t>
   </si>
   <si>
+    <t>02:54</t>
+  </si>
+  <si>
     <t>('DEP', 450226, 10520)</t>
   </si>
   <si>
+    <t>23:54</t>
+  </si>
+  <si>
+    <t>02:39</t>
+  </si>
+  <si>
     <t>('DEP', 489447, 10451)</t>
   </si>
   <si>
     <t>('DEP', 54003, 10319)</t>
   </si>
   <si>
+    <t>06:50</t>
+  </si>
+  <si>
     <t>('DEP', 54051, 10414)</t>
   </si>
   <si>
-    <t>06:18</t>
+    <t>03:09</t>
   </si>
   <si>
     <t>('DEP', 54086, 10310)</t>
   </si>
   <si>
+    <t>06:35</t>
+  </si>
+  <si>
     <t>('DEP', 54231, 10929)</t>
   </si>
   <si>
     <t>('DEP', 41258, 11683)</t>
   </si>
   <si>
+    <t>23:39</t>
+  </si>
+  <si>
+    <t>02:24</t>
+  </si>
+  <si>
     <t>('DEP', 431091, 11899)</t>
   </si>
   <si>
-    <t>12:19</t>
-  </si>
-  <si>
-    <t>15:04</t>
-  </si>
-  <si>
     <t>('DEP', 489044, 11650)</t>
   </si>
   <si>
@@ -965,9 +1256,6 @@
   </si>
   <si>
     <t>('DEP', 431113, 13620)</t>
-  </si>
-  <si>
-    <t>13:45</t>
   </si>
   <si>
     <t>16:30</t>
@@ -1335,17 +1623,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.3828125" customWidth="1"/>
-    <col min="2" max="2" width="15.61328125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.61328125" customWidth="1"/>
-    <col min="5" max="5" width="16.07421875" customWidth="1"/>
-    <col min="6" max="6" width="16.15234375" customWidth="1"/>
-    <col min="7" max="7" width="14.921875" customWidth="1"/>
+    <col min="1" max="1" width="19.921875" customWidth="1"/>
+    <col min="2" max="7" width="13.765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1541,7 +1826,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1549,10 +1834,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1560,10 +1845,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1571,10 +1856,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1582,7 +1867,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -1593,21 +1878,21 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1615,21 +1900,21 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -1637,10 +1922,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -1648,1081 +1933,1081 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B63" t="s">
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
         <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
       </c>
       <c r="C88" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C89" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B94" t="s">
         <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C105" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B106" t="s">
         <v>22</v>
       </c>
       <c r="C106" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="B108" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="D113" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E113" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G113" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D114" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E114" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G114" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="E115" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="G115" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D116" t="s">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="E116" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G116" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="D117" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="E117" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="G117" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E118" t="s">
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G118" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="D119" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="G119" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="D120" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="G120" t="s">
         <v>9</v>
@@ -2730,16 +3015,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D121" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -2747,16 +3032,16 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D122" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="G122" t="s">
         <v>20</v>
@@ -2764,101 +3049,101 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="E123" t="s">
         <v>20</v>
       </c>
       <c r="F123" t="s">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="G123" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E124" t="s">
         <v>20</v>
       </c>
       <c r="F124" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="G124" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E125" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F125" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="G125" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="E126" t="s">
         <v>20</v>
       </c>
       <c r="F126" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="G126" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="E127" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="G127" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="D128" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="G128" t="s">
         <v>9</v>
@@ -2866,84 +3151,84 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="G129" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="D130" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="E130" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F130" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="G130" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D131" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="E131" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F131" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
       <c r="G131" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="E132" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F132" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="G132" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="D133" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E133" t="s">
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -2951,16 +3236,16 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="E134" t="s">
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="G134" t="s">
         <v>20</v>
@@ -2968,84 +3253,84 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D135" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="E136" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F136" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="G136" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="E137" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F137" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E138" t="s">
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="G138" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="E139" t="s">
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="G139" t="s">
         <v>20</v>
@@ -3053,50 +3338,50 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D140" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="E140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="G140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="E141" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F141" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="G141" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
       <c r="D142" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="E142" t="s">
         <v>20</v>
       </c>
       <c r="F142" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="G142" t="s">
         <v>20</v>
@@ -3104,1294 +3389,1294 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="E143" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F143" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G143" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="E144" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F144" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="G144" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E145" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="G145" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="D146" t="s">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="E146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F146" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G146" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="E147" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="G147" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="D148" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="E148" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F148" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="G148" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="D149" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E149" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F149" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="G149" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="D150" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="E150" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F150" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="G150" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>287</v>
       </c>
       <c r="D151" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E151" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F151" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G151" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="D152" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="E152" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F152" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="G152" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="E153" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F153" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="G153" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="D154" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="E154" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F154" t="s">
-        <v>235</v>
+        <v>295</v>
       </c>
       <c r="G154" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="D155" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E155" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F155" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G155" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F156" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="G156" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D157" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F157" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="G157" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="D158" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="E158" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F158" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="G158" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="D159" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="E159" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F159" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G159" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="E160" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F160" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G160" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="D161" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="E161" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F161" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="G161" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="D162" t="s">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="E162" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="G162" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="D163" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
       <c r="G163" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="D164" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="E164" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F164" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="G164" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="D165" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="E165" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="F165" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="G165" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="D166" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E166" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F166" t="s">
-        <v>175</v>
+        <v>316</v>
       </c>
       <c r="G166" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="D167" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="E167" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F167" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="G167" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="D168" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="E168" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F168" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G168" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="D169" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E169" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F169" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G169" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="D170" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E170" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F170" t="s">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="G170" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="D171" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E171" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F171" t="s">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="G171" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="D172" t="s">
-        <v>173</v>
+        <v>325</v>
       </c>
       <c r="E172" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F172" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="G172" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="D173" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E173" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F173" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G173" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="D174" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E174" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F174" t="s">
-        <v>243</v>
+        <v>329</v>
       </c>
       <c r="G174" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="D175" t="s">
-        <v>173</v>
+        <v>331</v>
       </c>
       <c r="E175" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F175" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="G175" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="D176" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E176" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F176" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="G176" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
       <c r="D177" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
       <c r="E177" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F177" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="G177" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="D178" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="E178" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F178" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="G178" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="D179" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="E179" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F179" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="G179" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="D180" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
       <c r="E180" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F180" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="G180" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="D181" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="E181" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F181" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
       <c r="G181" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>268</v>
+        <v>347</v>
       </c>
       <c r="D182" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="E182" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F182" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="G182" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="D183" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
       <c r="E183" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F183" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="G183" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="D184" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="E184" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="G184" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>271</v>
+        <v>354</v>
       </c>
       <c r="D185" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="E185" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F185" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="G185" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>355</v>
       </c>
       <c r="D186" t="s">
-        <v>273</v>
+        <v>356</v>
       </c>
       <c r="E186" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F186" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="G186" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="D187" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="E187" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F187" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G187" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>276</v>
+        <v>359</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="E188" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F188" t="s">
-        <v>175</v>
+        <v>361</v>
       </c>
       <c r="G188" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="E189" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F189" t="s">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="G189" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="D190" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="F190" t="s">
-        <v>175</v>
+        <v>364</v>
       </c>
       <c r="G190" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="D191" t="s">
-        <v>173</v>
+        <v>366</v>
       </c>
       <c r="E191" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F191" t="s">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="G191" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>281</v>
+        <v>368</v>
       </c>
       <c r="D192" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E192" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F192" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="G192" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="D193" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="E193" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F193" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
       <c r="G193" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>284</v>
+        <v>371</v>
       </c>
       <c r="D194" t="s">
-        <v>285</v>
+        <v>372</v>
       </c>
       <c r="E194" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="F194" t="s">
-        <v>286</v>
+        <v>373</v>
       </c>
       <c r="G194" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>287</v>
+        <v>374</v>
       </c>
       <c r="D195" t="s">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="E195" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F195" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="G195" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>288</v>
+        <v>375</v>
       </c>
       <c r="D196" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="E196" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="G196" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="D197" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="E197" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F197" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="G197" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="D198" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E198" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G198" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>378</v>
       </c>
       <c r="D199" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E199" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F199" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="G199" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>292</v>
+        <v>379</v>
       </c>
       <c r="D200" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="E200" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F200" t="s">
-        <v>175</v>
+        <v>276</v>
       </c>
       <c r="G200" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="D201" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="E201" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F201" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G201" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="D202" t="s">
-        <v>173</v>
+        <v>382</v>
       </c>
       <c r="E202" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F202" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="G202" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="D203" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="E203" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F203" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="G203" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>296</v>
+        <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="E204" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F204" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>297</v>
+        <v>387</v>
       </c>
       <c r="D205" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
       <c r="E205" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>175</v>
+        <v>390</v>
       </c>
       <c r="G205" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>299</v>
+        <v>391</v>
       </c>
       <c r="D206" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E206" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F206" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="G206" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="D207" t="s">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="E207" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F207" t="s">
-        <v>175</v>
+        <v>395</v>
       </c>
       <c r="G207" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>301</v>
+        <v>396</v>
       </c>
       <c r="D208" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="E208" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F208" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="G208" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>302</v>
+        <v>397</v>
       </c>
       <c r="D209" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="E209" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F209" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
       <c r="G209" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="D210" t="s">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E210" t="s">
-        <v>145</v>
+        <v>389</v>
       </c>
       <c r="F210" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="G210" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="D211" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F211" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="G211" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>306</v>
+        <v>403</v>
       </c>
       <c r="D212" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E212" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F212" t="s">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="G212" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>307</v>
+        <v>404</v>
       </c>
       <c r="D213" t="s">
-        <v>173</v>
+        <v>405</v>
       </c>
       <c r="E213" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F213" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
       <c r="G213" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="D214" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="E214" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="F214" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="G214" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>311</v>
+        <v>408</v>
       </c>
       <c r="D215" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E215" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F215" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G215" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>312</v>
+        <v>409</v>
       </c>
       <c r="D216" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="E216" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="F216" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="G216" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="D217" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="E217" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F217" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="G217" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>314</v>
+        <v>411</v>
       </c>
       <c r="D218" t="s">
-        <v>315</v>
+        <v>77</v>
       </c>
       <c r="E218" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F218" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="G218" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
